--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>541.9484650450382</v>
+        <v>1083.518829430944</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.45846504503517</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.264931852275022</v>
+        <v>5.575377337951518</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.264931852275022</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>447.2000000000031</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,9 +609,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -931,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>27.30976054153059</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.56872016525512</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.36749619474264</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.46981780704569</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -977,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1023,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1037,15 +1059,113 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>238.6749999999998</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>250.0900000000007</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>240.2949999999998</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>246.5050000000006</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>248.0350000000007</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999899</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999983</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0099999999993</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8049999999993</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000002</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.985</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000009</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000008</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>238.6749999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>250.0900000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>240.2949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>246.5050000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>248.0350000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>65.71999999999964</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>59.43999999999964</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>69.37499999999963</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>64.17999999999964</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>63.18499999999963</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
@@ -1624,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>38.67499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1635,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>50.09000000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.29499999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>46.50500000000062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>48.03500000000068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1679,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1690,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1701,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1990,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2103,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2141,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2152,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2163,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2174,12 +2294,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
